--- a/Data_preparation/datasets/final_data/OPEN_TEXT_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/OPEN_TEXT_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="45">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,67 +148,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
+    <t>OTEX CN</t>
   </si>
 </sst>
 </file>
@@ -715,19 +655,19 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>11.40454674014372</v>
+        <v>27.08707916460632</v>
       </c>
       <c r="E2">
-        <v>11.25329399108887</v>
+        <v>24.64519882202148</v>
       </c>
       <c r="F2">
-        <v>11.646553599544</v>
+        <v>28.97104764375426</v>
       </c>
       <c r="G2">
-        <v>10.79953140113752</v>
+        <v>24.31772915048765</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>254316690</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -843,22 +783,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>19705.44771228903</v>
+        <v>20.61402843980169</v>
       </c>
       <c r="E3">
-        <v>18415.580078125</v>
+        <v>24.11130523681641</v>
       </c>
       <c r="F3">
-        <v>20373.69239022943</v>
+        <v>24.39563697346896</v>
       </c>
       <c r="G3">
-        <v>18260.1743390691</v>
+        <v>19.36703216355954</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>254316690</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>4953298402</v>
@@ -971,22 +911,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>754.2077893284245</v>
+        <v>24.45590385028711</v>
       </c>
       <c r="E4">
-        <v>754.7066040039062</v>
+        <v>24.73339462280273</v>
       </c>
       <c r="F4">
-        <v>768.1746002419138</v>
+        <v>25.58627035312975</v>
       </c>
       <c r="G4">
-        <v>727.601031587557</v>
+        <v>23.03172322203249</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>254316690</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>5474610016</v>
@@ -1099,22 +1039,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>27.125</v>
+        <v>27.69358316122026</v>
       </c>
       <c r="E5">
-        <v>25.34499931335449</v>
+        <v>28.08698081970215</v>
       </c>
       <c r="F5">
-        <v>27.125</v>
+        <v>28.35334469694572</v>
       </c>
       <c r="G5">
-        <v>22.22999954223633</v>
+        <v>26.04622870770109</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>254316690</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>5816390624</v>
@@ -1227,22 +1167,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>11.19978539931328</v>
+        <v>27.62548664053264</v>
       </c>
       <c r="E6">
-        <v>11.3136043548584</v>
+        <v>28.90513038635254</v>
       </c>
       <c r="F6">
-        <v>11.83261851426581</v>
+        <v>29.61695917782575</v>
       </c>
       <c r="G6">
-        <v>10.98580520713185</v>
+        <v>26.90543001169112</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>254316690</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>6274468991</v>
@@ -1355,22 +1295,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>17.48999977111816</v>
+        <v>32.32868316799782</v>
       </c>
       <c r="E7">
-        <v>18.72999954223633</v>
+        <v>32.86990356445312</v>
       </c>
       <c r="F7">
-        <v>18.8700008392334</v>
+        <v>34.48943871424537</v>
       </c>
       <c r="G7">
-        <v>16.79999923706055</v>
+        <v>31.0272722886515</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>254316690</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>7175473627</v>
@@ -1483,22 +1423,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>8.69158867261447</v>
+        <v>35.27128864848864</v>
       </c>
       <c r="E8">
-        <v>9.01453971862793</v>
+        <v>34.53318786621094</v>
       </c>
       <c r="F8">
-        <v>9.435779708844802</v>
+        <v>36.12964226751073</v>
       </c>
       <c r="G8">
-        <v>8.331194091753382</v>
+        <v>34.05632404150255</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>254316690</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>7876821648</v>
@@ -1611,22 +1551,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>534.967198865167</v>
+        <v>34.40878521960051</v>
       </c>
       <c r="E9">
-        <v>450.4078674316406</v>
+        <v>36.938232421875</v>
       </c>
       <c r="F9">
-        <v>571.2069123366783</v>
+        <v>38.14075743517561</v>
       </c>
       <c r="G9">
-        <v>445.230765507139</v>
+        <v>34.04387924490865</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>254316690</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>7512525051</v>
@@ -1739,22 +1679,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>9.769573715804048</v>
+        <v>37.58509944808483</v>
       </c>
       <c r="E10">
-        <v>9.667807579040527</v>
+        <v>39.25204849243164</v>
       </c>
       <c r="F10">
-        <v>9.973106636344406</v>
+        <v>39.78281726711452</v>
       </c>
       <c r="G10">
-        <v>9.396430782995594</v>
+        <v>36.48209618137788</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>254316690</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>8949427383</v>
@@ -1867,22 +1807,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>804.4902529480636</v>
+        <v>33.63749938181371</v>
       </c>
       <c r="E11">
-        <v>793.3997192382812</v>
+        <v>34.58293151855469</v>
       </c>
       <c r="F11">
-        <v>875.2990450951361</v>
+        <v>35.84350875541964</v>
       </c>
       <c r="G11">
-        <v>749.0375843991515</v>
+        <v>33.18966210747399</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>254316690</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>8324214717</v>
@@ -1995,22 +1935,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>16.30785379979687</v>
+        <v>33.6284062767466</v>
       </c>
       <c r="E12">
-        <v>16.63021850585938</v>
+        <v>37.56754302978516</v>
       </c>
       <c r="F12">
-        <v>17.91335631168335</v>
+        <v>37.75908631470836</v>
       </c>
       <c r="G12">
-        <v>16.30785379979687</v>
+        <v>33.49515863606636</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>254316690</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>8532335497</v>
@@ -2123,22 +2063,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>21.06097328157131</v>
+        <v>37.30220989214942</v>
       </c>
       <c r="E13">
-        <v>21.5913028717041</v>
+        <v>35.22010803222656</v>
       </c>
       <c r="F13">
-        <v>23.51893322585045</v>
+        <v>37.39419074396421</v>
       </c>
       <c r="G13">
-        <v>20.76122322733137</v>
+        <v>34.56788481360144</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>254316690</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>9469740193</v>
@@ -2251,22 +2191,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>15.95295863791121</v>
+        <v>37.47623864206496</v>
       </c>
       <c r="E14">
-        <v>14.81924629211426</v>
+        <v>38.0469856262207</v>
       </c>
       <c r="F14">
-        <v>16.27687689615273</v>
+        <v>38.99543008952996</v>
       </c>
       <c r="G14">
-        <v>13.44259525263616</v>
+        <v>35.88150385660576</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>254316690</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>9250162352</v>
@@ -2379,19 +2319,19 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>32.36709687656226</v>
+        <v>40.03819326764636</v>
       </c>
       <c r="E15">
-        <v>31.62302398681641</v>
+        <v>40.80524063110352</v>
       </c>
       <c r="F15">
-        <v>33.33438902755955</v>
+        <v>42.49105929500441</v>
       </c>
       <c r="G15">
-        <v>30.02327147189045</v>
+        <v>39.02670142621704</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>254316690</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -2507,22 +2447,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>118.8699784743474</v>
+        <v>41.6994347438015</v>
       </c>
       <c r="E16">
-        <v>131.6345367431641</v>
+        <v>37.60395431518555</v>
       </c>
       <c r="F16">
-        <v>137.6179242105138</v>
+        <v>41.91097814770129</v>
       </c>
       <c r="G16">
-        <v>98.52645983921131</v>
+        <v>35.95391834708406</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>254316690</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>10188874013</v>
@@ -2635,22 +2575,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>178.7038649689565</v>
+        <v>37.31972701042721</v>
       </c>
       <c r="E17">
-        <v>142.8035278320312</v>
+        <v>39.69948577880859</v>
       </c>
       <c r="F17">
-        <v>181.4961066283612</v>
+        <v>40.76187837560072</v>
       </c>
       <c r="G17">
-        <v>142.8035278320312</v>
+        <v>36.01935950944642</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>254316690</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>8753583034</v>
@@ -2763,22 +2703,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1096.205709613841</v>
+        <v>44.0129405814935</v>
       </c>
       <c r="E18">
-        <v>1205.027587890625</v>
+        <v>43.94467544555664</v>
       </c>
       <c r="F18">
-        <v>1294.880514908153</v>
+        <v>44.78090383041818</v>
       </c>
       <c r="G18">
-        <v>1035.305392413072</v>
+        <v>42.82685825754679</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>254316690</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>10328754624</v>
@@ -2891,22 +2831,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>40544.09822043826</v>
+        <v>47.1289517292708</v>
       </c>
       <c r="E19">
-        <v>38831.5703125</v>
+        <v>48.24311065673828</v>
       </c>
       <c r="F19">
-        <v>40715.35101123209</v>
+        <v>50.26573934288837</v>
       </c>
       <c r="G19">
-        <v>37975.30635853087</v>
+        <v>46.51187768417542</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>254316690</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>11102809604</v>
@@ -3019,22 +2959,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>60.76406463044493</v>
+        <v>46.78366020214141</v>
       </c>
       <c r="E20">
-        <v>59.60836791992188</v>
+        <v>45.81940460205078</v>
       </c>
       <c r="F20">
-        <v>61.14327406172586</v>
+        <v>47.21413186271162</v>
       </c>
       <c r="G20">
-        <v>56.1412984537168</v>
+        <v>44.18361097818868</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>254316690</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>11019182252</v>
@@ -3147,22 +3087,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>222.8461507933775</v>
+        <v>49.65815456507334</v>
       </c>
       <c r="E21">
-        <v>219.044937133789</v>
+        <v>51.48197937011719</v>
       </c>
       <c r="F21">
-        <v>252.7807083626373</v>
+        <v>54.36033540147756</v>
       </c>
       <c r="G21">
-        <v>203.3649307879864</v>
+        <v>49.17410522856788</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>254316690</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>11916494948</v>
@@ -3275,22 +3215,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>12.41129859768217</v>
+        <v>41.92561566267757</v>
       </c>
       <c r="E22">
-        <v>16.23237037658691</v>
+        <v>45.6486701965332</v>
       </c>
       <c r="F22">
-        <v>17.16704825563687</v>
+        <v>47.74017763759019</v>
       </c>
       <c r="G22">
-        <v>12.05887897968325</v>
+        <v>41.37019178344922</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>254316690</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>9455343958</v>
@@ -3403,22 +3343,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>970.3393129824782</v>
+        <v>51.11822285848606</v>
       </c>
       <c r="E23">
-        <v>1088.628295898438</v>
+        <v>52.54761505126953</v>
       </c>
       <c r="F23">
-        <v>1118.200541627427</v>
+        <v>53.21001509494332</v>
       </c>
       <c r="G23">
-        <v>950.0083940437976</v>
+        <v>49.10486971387965</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>254316690</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>11539379730</v>
@@ -3531,22 +3471,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>12.7733873356874</v>
+        <v>49.54175206591385</v>
       </c>
       <c r="E24">
-        <v>15.52035236358643</v>
+        <v>42.82304000854492</v>
       </c>
       <c r="F24">
-        <v>17.30587870681586</v>
+        <v>49.86543906931052</v>
       </c>
       <c r="G24">
-        <v>12.68182262753309</v>
+        <v>42.60433194245146</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>254316690</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>11484046675</v>
@@ -3659,22 +3599,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>32.50755730601569</v>
+        <v>51.02996927484659</v>
       </c>
       <c r="E25">
-        <v>31.25653076171875</v>
+        <v>50.33574295043945</v>
       </c>
       <c r="F25">
-        <v>32.99459606093095</v>
+        <v>52.85780516408641</v>
       </c>
       <c r="G25">
-        <v>30.77904021483708</v>
+        <v>49.04395850310341</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>254316690</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>12382190139</v>
@@ -3775,22 +3715,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2516.34996159507</v>
+        <v>53.24266514418533</v>
       </c>
       <c r="E26">
-        <v>2790.17041015625</v>
+        <v>51.08895111083984</v>
       </c>
       <c r="F26">
-        <v>2807.159270103477</v>
+        <v>55.64352911829603</v>
       </c>
       <c r="G26">
-        <v>2503.838146397838</v>
+        <v>50.74471027837064</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>254316690</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>13014650690</v>
@@ -3903,22 +3843,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>40.06459571156605</v>
+        <v>56.41962542297789</v>
       </c>
       <c r="E27">
-        <v>40.04537963867188</v>
+        <v>57.43899154663086</v>
       </c>
       <c r="F27">
-        <v>40.5353766696543</v>
+        <v>57.82900477344377</v>
       </c>
       <c r="G27">
-        <v>36.25990124070713</v>
+        <v>55.46230731923109</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>254316690</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>13878438283</v>
@@ -4031,22 +3971,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>51.72000122070312</v>
+        <v>55.1965642243056</v>
       </c>
       <c r="E28">
-        <v>45.22999954223633</v>
+        <v>55.48135757446289</v>
       </c>
       <c r="F28">
-        <v>53.2400016784668</v>
+        <v>56.02424595913914</v>
       </c>
       <c r="G28">
-        <v>43.54000091552734</v>
+        <v>53.47000411460147</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>254316690</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>13245308384</v>
@@ -4159,22 +4099,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>98.06110899770088</v>
+        <v>53.73399416397633</v>
       </c>
       <c r="E29">
-        <v>84.43734741210938</v>
+        <v>54.4046630859375</v>
       </c>
       <c r="F29">
-        <v>98.06110899770088</v>
+        <v>54.45831782772586</v>
       </c>
       <c r="G29">
-        <v>80.56356001156674</v>
+        <v>50.47901487518325</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>254316690</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>12950653014</v>
@@ -4275,22 +4215,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>564.8420934999623</v>
+        <v>47.84274340870019</v>
       </c>
       <c r="E30">
-        <v>567.5840454101562</v>
+        <v>46.24289321899414</v>
       </c>
       <c r="F30">
-        <v>568.4980293802209</v>
+        <v>48.76849895506412</v>
       </c>
       <c r="G30">
-        <v>487.1534560444658</v>
+        <v>44.99357169524637</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>254316690</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>11498332616</v>
@@ -4403,22 +4343,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>990.9535599144536</v>
+        <v>44.28402714625329</v>
       </c>
       <c r="E31">
-        <v>932.830322265625</v>
+        <v>47.33872222900391</v>
       </c>
       <c r="F31">
-        <v>1065.275076908038</v>
+        <v>47.83578715031835</v>
       </c>
       <c r="G31">
-        <v>932.830322265625</v>
+        <v>43.65139749751025</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>254316690</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>10235078196</v>
@@ -4531,22 +4471,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>3829.951036061672</v>
+        <v>33.33449602243562</v>
       </c>
       <c r="E32">
-        <v>3718.19677734375</v>
+        <v>35.93932342529297</v>
       </c>
       <c r="F32">
-        <v>4026.941593801738</v>
+        <v>37.15976691214414</v>
       </c>
       <c r="G32">
-        <v>3570.453859038701</v>
+        <v>31.62223472246419</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>254316690</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>7134032313</v>
@@ -4647,22 +4587,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>17.67499923706055</v>
+        <v>37.29452073734611</v>
       </c>
       <c r="E33">
-        <v>19.1200008392334</v>
+        <v>40.98632049560547</v>
       </c>
       <c r="F33">
-        <v>19.76000022888184</v>
+        <v>41.95977778042102</v>
       </c>
       <c r="G33">
-        <v>17.08499908447266</v>
+        <v>36.59656666189482</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>254316690</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>8009772336</v>
@@ -4775,22 +4715,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>4646.163088703966</v>
+        <v>48.05835068213502</v>
       </c>
       <c r="E34">
-        <v>4397.0390625</v>
+        <v>47.45716094970703</v>
       </c>
       <c r="F34">
-        <v>4647.12125803552</v>
+        <v>49.02025848792423</v>
       </c>
       <c r="G34">
-        <v>4224.568582820331</v>
+        <v>46.58774278636714</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>254316690</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>10426353237</v>
@@ -4903,22 +4843,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>299.8867087280755</v>
+        <v>50.95528754852929</v>
       </c>
       <c r="E35">
-        <v>279.6763610839844</v>
+        <v>52.69504165649414</v>
       </c>
       <c r="F35">
-        <v>311.3327623979251</v>
+        <v>52.97414604322037</v>
       </c>
       <c r="G35">
-        <v>274.7053735580706</v>
+        <v>48.83408995060414</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>254316690</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>11249562905</v>
@@ -5019,22 +4959,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1366.269412157012</v>
+        <v>44.55481537514859</v>
       </c>
       <c r="E36">
-        <v>1400.426147460938</v>
+        <v>43.34708786010742</v>
       </c>
       <c r="F36">
-        <v>1722.475366040805</v>
+        <v>46.09021923702836</v>
       </c>
       <c r="G36">
-        <v>1356.510344927319</v>
+        <v>41.51209317500254</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>254316690</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>9518650362</v>
@@ -5135,22 +5075,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>124.5980016318655</v>
+        <v>52.2062410781632</v>
       </c>
       <c r="E37">
-        <v>132.1493988037109</v>
+        <v>55.23009872436523</v>
       </c>
       <c r="F37">
-        <v>136.1187273141222</v>
+        <v>56.16268748023748</v>
       </c>
       <c r="G37">
-        <v>122.5649354352075</v>
+        <v>49.76643635649425</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>254316690</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>11409048871</v>
@@ -5263,22 +5203,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4156.728619089413</v>
+        <v>49.85302816979944</v>
       </c>
       <c r="E38">
-        <v>4553.76318359375</v>
+        <v>46.08892440795898</v>
       </c>
       <c r="F38">
-        <v>5096.40944657156</v>
+        <v>50.07109917129904</v>
       </c>
       <c r="G38">
-        <v>3750.957352676668</v>
+        <v>44.8373842847456</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>254316690</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>10563489682</v>
@@ -5391,22 +5331,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>2890.935410112718</v>
+        <v>38.9072398281281</v>
       </c>
       <c r="E39">
-        <v>2691.009033203125</v>
+        <v>41.62347793579102</v>
       </c>
       <c r="F39">
-        <v>3014.889763796666</v>
+        <v>42.14950920572883</v>
       </c>
       <c r="G39">
-        <v>2519.072349060875</v>
+        <v>38.9072398281281</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>254316690</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>8196998068</v>
@@ -5507,22 +5447,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>31.23959479848472</v>
+        <v>43.39632669119851</v>
       </c>
       <c r="E40">
-        <v>28.76222801208496</v>
+        <v>40.27178955078125</v>
       </c>
       <c r="F40">
-        <v>31.50219696309808</v>
+        <v>45.82652142735589</v>
       </c>
       <c r="G40">
-        <v>28.63340577082776</v>
+        <v>40.00176913968116</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>254316690</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>8925361336</v>
@@ -5635,22 +5575,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2476.994723535176</v>
+        <v>39.8803388479025</v>
       </c>
       <c r="E41">
-        <v>2384.00341796875</v>
+        <v>41.5922737121582</v>
       </c>
       <c r="F41">
-        <v>2758.415779854624</v>
+        <v>42.62332771084327</v>
       </c>
       <c r="G41">
-        <v>2325.761495008725</v>
+        <v>37.70150894650918</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>254316690</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>7529730124</v>
@@ -5763,22 +5703,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>3590.70430246099</v>
+        <v>35.65959696181734</v>
       </c>
       <c r="E42">
-        <v>3714.694091796875</v>
+        <v>36.67170333862305</v>
       </c>
       <c r="F42">
-        <v>3714.694091796875</v>
+        <v>37.22197676837867</v>
       </c>
       <c r="G42">
-        <v>3048.748932944461</v>
+        <v>31.84699649860791</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>254316690</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>6668639949</v>
@@ -5891,22 +5831,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>2937</v>
+        <v>39.87057849531841</v>
       </c>
       <c r="E43">
-        <v>3025</v>
+        <v>40.4458236694336</v>
       </c>
       <c r="F43">
-        <v>3125</v>
+        <v>41.89386245276646</v>
       </c>
       <c r="G43">
-        <v>2890</v>
+        <v>37.78778485084987</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>254316690</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>7566958401</v>
